--- a/all_model_summary.xlsx
+++ b/all_model_summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emory-my.sharepoint.com/personal/jdprest_emory_edu/Documents/Research/Manuscripts and Projects/Grady/Risk Calculator/grady-bcvi-calculator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="8_{4808E765-8A85-E24F-BE30-B9607061350F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E3392BE-6D3B-114E-9F13-22935423A8AA}"/>
+  <xr:revisionPtr revIDLastSave="68" documentId="8_{4808E765-8A85-E24F-BE30-B9607061350F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E916C6A0-8ACC-8742-9CF2-37884BC7C5A7}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{7B1DE75E-E2D8-4843-902F-9E61CEC9211F}"/>
+    <workbookView xWindow="-32920" yWindow="1540" windowWidth="32920" windowHeight="17440" xr2:uid="{7B1DE75E-E2D8-4843-902F-9E61CEC9211F}"/>
   </bookViews>
   <sheets>
     <sheet name="all_model_summary" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">all_model_summary!$A$1:$M$33</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" calcCompleted="0"/>
 </workbook>
 </file>
 
@@ -115,9 +115,6 @@
     <t>Bayes</t>
   </si>
   <si>
-    <t>Bayesian GLM</t>
-  </si>
-  <si>
     <t>Bayes_simpl_down</t>
   </si>
   <si>
@@ -230,6 +227,9 @@
   </si>
   <si>
     <t>S,W</t>
+  </si>
+  <si>
+    <t>Bayes GLM</t>
   </si>
 </sst>
 </file>
@@ -728,19 +728,19 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1121,7 +1121,7 @@
   <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="L2" sqref="H2:L3"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1130,7 +1130,7 @@
     <col min="2" max="2" width="14.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" style="3" customWidth="1"/>
     <col min="6" max="7" width="6.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.5" style="3" bestFit="1" customWidth="1"/>
@@ -1175,10 +1175,10 @@
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -1204,10 +1204,10 @@
         <v>1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>25</v>
@@ -1216,7 +1216,7 @@
         <v>16</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>16</v>
@@ -1224,69 +1224,64 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1">
-        <v>0.36</v>
+        <v>0.77</v>
       </c>
       <c r="E3" s="1">
-        <v>0.73</v>
+        <v>0.97</v>
       </c>
       <c r="F3" s="2">
-        <v>0.68</v>
+        <v>0.77</v>
       </c>
       <c r="G3" s="2">
-        <v>0.68</v>
+        <v>1</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="1">
-        <v>0.6</v>
+        <v>0.62</v>
       </c>
       <c r="E4" s="1">
-        <v>0.85</v>
+        <v>0.87</v>
       </c>
       <c r="F4" s="2">
-        <v>0.79</v>
+        <v>0.63</v>
       </c>
       <c r="G4" s="2">
-        <v>0.81</v>
+        <v>0.98</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>15</v>
@@ -1297,90 +1292,80 @@
       <c r="K4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="1">
-        <v>0.41</v>
+        <v>0.62</v>
       </c>
       <c r="E5" s="1">
-        <v>0.75</v>
+        <v>0.87</v>
       </c>
       <c r="F5" s="2">
-        <v>0.65</v>
+        <v>0.63</v>
       </c>
       <c r="G5" s="2">
-        <v>0.76</v>
+        <v>0.98</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D6" s="1">
-        <v>0.36</v>
+        <v>0.46</v>
       </c>
       <c r="E6" s="1">
-        <v>0.74</v>
+        <v>0.8</v>
       </c>
       <c r="F6" s="2">
-        <v>0.65</v>
+        <v>0.72</v>
       </c>
       <c r="G6" s="2">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>16</v>
@@ -1388,28 +1373,28 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D7" s="1">
-        <v>0.31</v>
+        <v>0.41</v>
       </c>
       <c r="E7" s="1">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="F7" s="2">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="G7" s="2">
-        <v>0.68</v>
+        <v>0.76</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>15</v>
@@ -1421,7 +1406,7 @@
         <v>16</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>16</v>
@@ -1429,40 +1414,40 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D8" s="1">
-        <v>0.46</v>
+        <v>0.37</v>
       </c>
       <c r="E8" s="1">
-        <v>0.8</v>
+        <v>0.76</v>
       </c>
       <c r="F8" s="2">
-        <v>0.72</v>
+        <v>0.65</v>
       </c>
       <c r="G8" s="2">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>16</v>
@@ -1470,67 +1455,72 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="1">
-        <v>0.77</v>
+        <v>0.36</v>
       </c>
       <c r="E9" s="1">
-        <v>0.97</v>
+        <v>0.74</v>
       </c>
       <c r="F9" s="2">
-        <v>0.77</v>
+        <v>0.65</v>
       </c>
       <c r="G9" s="2">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L9" s="1"/>
+      <c r="L9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D10" s="1">
-        <v>0.62</v>
+        <v>0.36</v>
       </c>
       <c r="E10" s="1">
-        <v>0.87</v>
+        <v>0.73</v>
       </c>
       <c r="F10" s="2">
-        <v>0.63</v>
+        <v>0.68</v>
       </c>
       <c r="G10" s="2">
-        <v>0.98</v>
+        <v>0.68</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>25</v>
@@ -1538,38 +1528,43 @@
       <c r="K10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L10" s="1"/>
+      <c r="L10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="1">
-        <v>0.62</v>
+        <v>0.35</v>
       </c>
       <c r="E11" s="1">
-        <v>0.87</v>
+        <v>0.76</v>
       </c>
       <c r="F11" s="2">
-        <v>0.63</v>
+        <v>0.69</v>
       </c>
       <c r="G11" s="2">
-        <v>0.98</v>
+        <v>0.65</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>16</v>
@@ -1578,31 +1573,31 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="1">
-        <v>0.56000000000000005</v>
+        <v>0.35</v>
       </c>
       <c r="E12" s="1">
-        <v>0.85</v>
+        <v>0.73</v>
       </c>
       <c r="F12" s="2">
-        <v>0.73</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="G12" s="2">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>25</v>
@@ -1614,31 +1609,31 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D13" s="1">
-        <v>0.35</v>
+        <v>0.31</v>
       </c>
       <c r="E13" s="1">
-        <v>0.73</v>
+        <v>0.71</v>
       </c>
       <c r="F13" s="2">
-        <v>0.56999999999999995</v>
+        <v>0.63</v>
       </c>
       <c r="G13" s="2">
-        <v>0.77</v>
+        <v>0.68</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>25</v>
@@ -1646,14 +1641,19 @@
       <c r="K13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L13" s="1"/>
+      <c r="L13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>19</v>
@@ -1671,7 +1671,7 @@
         <v>0.7</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>15</v>
@@ -1707,10 +1707,10 @@
         <v>0.67</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>25</v>
@@ -1743,10 +1743,10 @@
         <v>0.87</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>16</v>
@@ -1815,10 +1815,10 @@
         <v>0.25</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>16</v>
@@ -1866,19 +1866,19 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D20" s="1">
         <v>0.12</v>
       </c>
       <c r="E20" s="1">
-        <v>0.72</v>
+        <v>0.87</v>
       </c>
       <c r="F20" s="2">
         <v>0.12</v>
@@ -1887,10 +1887,10 @@
         <v>1</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>25</v>
@@ -1923,13 +1923,13 @@
         <v>1</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>25</v>
@@ -1938,19 +1938,19 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D22" s="1">
         <v>0.12</v>
       </c>
       <c r="E22" s="1">
-        <v>0.87</v>
+        <v>0.72</v>
       </c>
       <c r="F22" s="2">
         <v>0.12</v>
@@ -1959,13 +1959,13 @@
         <v>1</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>25</v>
@@ -1974,25 +1974,25 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D23" s="1">
         <v>0.11</v>
       </c>
       <c r="E23" s="1">
-        <v>0.66</v>
+        <v>0.78</v>
       </c>
       <c r="F23" s="2">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="G23" s="2">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>43</v>
@@ -2010,28 +2010,28 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D24" s="1">
         <v>0.11</v>
       </c>
       <c r="E24" s="1">
-        <v>0.78</v>
+        <v>0.66</v>
       </c>
       <c r="F24" s="2">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="G24" s="2">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>15</v>
@@ -2067,7 +2067,7 @@
         <v>1</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>15</v>
@@ -2118,10 +2118,10 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>13</v>
@@ -2130,19 +2130,19 @@
         <v>0.09</v>
       </c>
       <c r="E27" s="1">
-        <v>0.81</v>
+        <v>0.72</v>
       </c>
       <c r="F27" s="2">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="G27" s="2">
         <v>1</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>25</v>
@@ -2175,10 +2175,10 @@
         <v>0.99</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>25</v>
@@ -2190,22 +2190,22 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D29" s="1">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="E29" s="1">
-        <v>0.72</v>
+        <v>0.77</v>
       </c>
       <c r="F29" s="2">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="G29" s="2">
         <v>1</v>
@@ -2214,7 +2214,7 @@
         <v>61</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>25</v>
@@ -2226,31 +2226,31 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D30" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0.72</v>
+      </c>
+      <c r="F30" s="2">
         <v>0.09</v>
       </c>
-      <c r="E30" s="1">
-        <v>0.81</v>
-      </c>
-      <c r="F30" s="2">
-        <v>0.1</v>
-      </c>
       <c r="G30" s="2">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>62</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>25</v>
@@ -2262,31 +2262,31 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D31" s="1">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E31" s="1">
-        <v>0.72</v>
+        <v>0.75</v>
       </c>
       <c r="F31" s="2">
-        <v>0.09</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G31" s="2">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>25</v>
@@ -2298,28 +2298,28 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D32" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
       <c r="E32" s="1">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="F32" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
       <c r="G32" s="2">
         <v>1</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>15</v>
@@ -2355,7 +2355,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>15</v>
@@ -2371,7 +2371,7 @@
   </sheetData>
   <autoFilter ref="A1:M33" xr:uid="{495790AB-0E7A-C74B-A46E-197284087AEA}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M33">
-      <sortCondition ref="L1:L33"/>
+      <sortCondition descending="1" ref="D1:D33"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
